--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>博时睿祥15个月定期开放混合C</t>
   </si>
   <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>64.37</t>
   </si>
   <si>
     <t>3.44</t>
+  </si>
+  <si>
+    <t>0.0808</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010194</t>
-  </si>
-  <si>
-    <t>010195</t>
-  </si>
-  <si>
-    <t>博时睿祥15个月定期开放混合A</t>
-  </si>
-  <si>
-    <t>博时睿祥15个月定期开放混合C</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>64.37</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>0.0808</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010194</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010195</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.94</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.3534</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,530 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010195</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合C</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.94</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.3523</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -770,32 +1248,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.33</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2134</t>
+          <t>0.2084</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -808,36 +1286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.16</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0942</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -856,26 +1334,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -884,22 +1362,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -909,11 +1387,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -922,36 +1400,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.33</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -970,26 +1448,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.16</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1054,32 +1532,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>80.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2084</t>
+          <t>0.2134</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1092,36 +1570,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.24</t>
+          <t>86.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.0942</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1140,26 +1618,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>75.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1168,22 +1646,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.13</t>
+          <t>75.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1193,11 +1671,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1206,36 +1684,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>008348</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>中信建投价值甄选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>80.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1254,26 +1732,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.13</t>
+          <t>86.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,7 +1786,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1338,36 +1816,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>69.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3534</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1376,530 +1854,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>69.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3523</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈国家安全沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3523</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2658</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>910021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1767</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1450</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010217</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012771</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014212</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时研究优享混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010857</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011313</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008324</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈祥利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>36.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008325</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈祥利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014213</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时研究优享混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010858</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1913,112 +1897,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300019-硅宝科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,290 +1485,6 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2084</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0899</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1532,32 +1549,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.33</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2134</t>
+          <t>0.2084</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1570,36 +1587,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.16</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0942</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1618,26 +1635,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1646,22 +1663,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1671,11 +1688,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1684,36 +1701,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.33</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1732,26 +1749,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.16</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1760,6 +1777,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
